--- a/xlsx/官僚制_intext.xlsx
+++ b/xlsx/官僚制_intext.xlsx
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8B%99%E9%A6%96%E9%95%B7</t>
   </si>
   <si>
-    <t>政務首長</t>
+    <t>政务首长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8A%A1%E5%AE%98</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1</t>
   </si>
   <si>
-    <t>公共財</t>
+    <t>公共财</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%90%8F%E6%B2%BB%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國吏治史</t>
+    <t>中国吏治史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E4%B8%AD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>封建制度 (中國)</t>
+    <t>封建制度 (中国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%99%A8</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%A0%A1_(%E5%B0%8F%E8%AF%B4)</t>

--- a/xlsx/官僚制_intext.xlsx
+++ b/xlsx/官僚制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>科层化</t>
   </si>
   <si>
-    <t>政策_政策_政治_官僚制</t>
+    <t>体育运动_体育运动_明成祖_官僚制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%A6%E4%BC%AF</t>
